--- a/src/Template/Report.xlsx
+++ b/src/Template/Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>PT. ALTAFLIX TECHNO GLOBAL</t>
   </si>
@@ -70,12 +70,36 @@
 Akhir</t>
   </si>
   <si>
+    <t>PK-19</t>
+  </si>
+  <si>
+    <t>11-08-2023</t>
+  </si>
+  <si>
+    <t>127839201</t>
+  </si>
+  <si>
+    <t>Ari</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>FGC</t>
+  </si>
+  <si>
+    <t>PK-17</t>
+  </si>
+  <si>
+    <t>145884778</t>
+  </si>
+  <si>
+    <t>Irfan</t>
+  </si>
+  <si>
     <t>PK003</t>
   </si>
   <si>
-    <t>1 Agustus 2023</t>
-  </si>
-  <si>
     <t>123456789</t>
   </si>
   <si>
@@ -85,19 +109,7 @@
     <t>Administrasi</t>
   </si>
   <si>
-    <t>FGC</t>
-  </si>
-  <si>
-    <t>145884778</t>
-  </si>
-  <si>
-    <t>Irfan</t>
-  </si>
-  <si>
-    <t>Software Engineer</t>
-  </si>
-  <si>
-    <t>Jakarta, 9 Agustus 2023</t>
+    <t>Jakarta, 11 Agustus 2023</t>
   </si>
   <si>
     <t>Mengetahui,</t>
@@ -858,11 +870,9 @@
       <c r="H10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="19"/>
+      <c r="J10" s="17" t="s">
         <v>21</v>
-      </c>
-      <c r="J10" s="17">
-        <v>90</v>
       </c>
       <c r="K10" s="17">
         <v>90</v>
@@ -871,13 +881,13 @@
         <v>90</v>
       </c>
       <c r="M10" s="19">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="N10" s="19">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="O10" s="20">
-        <v>0.4444</v>
+        <v>0.645334</v>
       </c>
       <c r="P10" s="21"/>
     </row>
@@ -887,28 +897,26 @@
         <v>2</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="17">
-        <v>90</v>
-      </c>
       <c r="K11" s="17">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="L11" s="17">
         <v>90</v>
@@ -920,25 +928,49 @@
         <v>90</v>
       </c>
       <c r="O11" s="20">
-        <v>0.4444</v>
+        <v>0.331747</v>
       </c>
       <c r="P11" s="9"/>
     </row>
     <row r="12" ht="19.25" customHeight="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="C12" s="17">
+        <v>3</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="I12" s="19"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="20"/>
+      <c r="J12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="17">
+        <v>60</v>
+      </c>
+      <c r="L12" s="17">
+        <v>60</v>
+      </c>
+      <c r="M12" s="19">
+        <v>60</v>
+      </c>
+      <c r="N12" s="19">
+        <v>60</v>
+      </c>
+      <c r="O12" s="20">
+        <v>0.0899856</v>
+      </c>
       <c r="P12" s="9"/>
     </row>
     <row r="13" ht="20.5" customHeight="1" spans="2:16" x14ac:dyDescent="0.25">
@@ -1085,7 +1117,7 @@
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="L22" s="17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
@@ -1095,7 +1127,7 @@
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="L23" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
@@ -1125,7 +1157,7 @@
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="M28" s="24" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N28" s="24"/>
       <c r="O28" s="22"/>
@@ -1134,7 +1166,7 @@
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="M29" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O29" s="22"/>
       <c r="P29" s="9"/>

--- a/src/Template/Report.xlsx
+++ b/src/Template/Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>PT. ALTAFLIX TECHNO GLOBAL</t>
   </si>
@@ -70,43 +70,64 @@
 Akhir</t>
   </si>
   <si>
+    <t>PK003</t>
+  </si>
+  <si>
+    <t>11-08-2023</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>Hamdan IbraKoki</t>
+  </si>
+  <si>
+    <t>Administrasi</t>
+  </si>
+  <si>
+    <t>FGC</t>
+  </si>
+  <si>
+    <t>PK-17</t>
+  </si>
+  <si>
+    <t>145884778</t>
+  </si>
+  <si>
+    <t>Irfan</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>PK-21</t>
+  </si>
+  <si>
+    <t>77665533772</t>
+  </si>
+  <si>
+    <t>Kevin Lusianto</t>
+  </si>
+  <si>
     <t>PK-19</t>
   </si>
   <si>
-    <t>11-08-2023</t>
-  </si>
-  <si>
     <t>127839201</t>
   </si>
   <si>
     <t>Ari</t>
   </si>
   <si>
-    <t>Software Engineer</t>
-  </si>
-  <si>
-    <t>FGC</t>
-  </si>
-  <si>
-    <t>PK-17</t>
-  </si>
-  <si>
-    <t>145884778</t>
-  </si>
-  <si>
-    <t>Irfan</t>
-  </si>
-  <si>
-    <t>PK003</t>
-  </si>
-  <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>Hamdan IbraKoki</t>
-  </si>
-  <si>
-    <t>Administrasi</t>
+    <t>PK-20</t>
+  </si>
+  <si>
+    <t>6655277188123</t>
+  </si>
+  <si>
+    <t>Narwanto</t>
+  </si>
+  <si>
+    <t>Staff</t>
   </si>
   <si>
     <t>Jakarta, 11 Agustus 2023</t>
@@ -870,24 +891,26 @@
       <c r="H10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="17" t="s">
+      <c r="I10" s="19" t="s">
         <v>21</v>
       </c>
+      <c r="J10" s="17">
+        <v>60</v>
+      </c>
       <c r="K10" s="17">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="L10" s="17">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="M10" s="19">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N10" s="19">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="O10" s="20">
-        <v>0.645334</v>
+        <v>0.0899856</v>
       </c>
       <c r="P10" s="21"/>
     </row>
@@ -909,14 +932,16 @@
         <v>24</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="19" t="s">
         <v>21</v>
       </c>
+      <c r="J11" s="17">
+        <v>60</v>
+      </c>
       <c r="K11" s="17">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="L11" s="17">
         <v>90</v>
@@ -925,7 +950,7 @@
         <v>90</v>
       </c>
       <c r="N11" s="19">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="O11" s="20">
         <v>0.331747</v>
@@ -938,73 +963,127 @@
         <v>3</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="19" t="s">
         <v>21</v>
+      </c>
+      <c r="J12" s="17">
+        <v>90</v>
       </c>
       <c r="K12" s="17">
         <v>60</v>
       </c>
       <c r="L12" s="17">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="M12" s="19">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N12" s="19">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="O12" s="20">
-        <v>0.0899856</v>
+        <v>0.446398</v>
       </c>
       <c r="P12" s="9"/>
     </row>
     <row r="13" ht="20.5" customHeight="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="20"/>
+      <c r="C13" s="17">
+        <v>4</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="17">
+        <v>90</v>
+      </c>
+      <c r="K13" s="17">
+        <v>75</v>
+      </c>
+      <c r="L13" s="17">
+        <v>90</v>
+      </c>
+      <c r="M13" s="19">
+        <v>60</v>
+      </c>
+      <c r="N13" s="19">
+        <v>90</v>
+      </c>
+      <c r="O13" s="20">
+        <v>0.522184</v>
+      </c>
       <c r="P13" s="9"/>
     </row>
     <row r="14" ht="19.75" customHeight="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="20"/>
+      <c r="C14" s="17">
+        <v>5</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="17">
+        <v>90</v>
+      </c>
+      <c r="K14" s="17">
+        <v>90</v>
+      </c>
+      <c r="L14" s="17">
+        <v>90</v>
+      </c>
+      <c r="M14" s="19">
+        <v>90</v>
+      </c>
+      <c r="N14" s="19">
+        <v>90</v>
+      </c>
+      <c r="O14" s="20">
+        <v>0.645334</v>
+      </c>
       <c r="P14" s="9"/>
     </row>
     <row r="15" ht="19.25" customHeight="1" spans="2:16" x14ac:dyDescent="0.25">
@@ -1117,7 +1196,7 @@
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="L22" s="17" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
@@ -1127,7 +1206,7 @@
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="L23" s="17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
@@ -1157,7 +1236,7 @@
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="M28" s="24" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N28" s="24"/>
       <c r="O28" s="22"/>
@@ -1166,7 +1245,7 @@
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="M29" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O29" s="22"/>
       <c r="P29" s="9"/>
